--- a/BackTest/2019-11-01 BackTest GXC.xlsx
+++ b/BackTest/2019-11-01 BackTest GXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>591.7</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>6</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>591.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>6</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
         <v>592.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>6</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
       <c r="L15" t="n">
         <v>592.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>6</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
       <c r="L16" t="n">
         <v>592.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>10</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-50</v>
+      </c>
       <c r="L17" t="n">
         <v>592</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>10</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-50</v>
+      </c>
       <c r="L18" t="n">
         <v>591.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>10</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-50</v>
+      </c>
       <c r="L19" t="n">
         <v>591.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>10</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-100</v>
+      </c>
       <c r="L20" t="n">
         <v>590.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>10</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-100</v>
+      </c>
       <c r="L21" t="n">
         <v>590.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>10</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-100</v>
+      </c>
       <c r="L22" t="n">
         <v>589.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>17</v>
       </c>
       <c r="K23" t="n">
-        <v>-52.94117647058824</v>
+        <v>-100</v>
       </c>
       <c r="L23" t="n">
         <v>588.5</v>
@@ -1466,7 +1488,7 @@
         <v>24</v>
       </c>
       <c r="K24" t="n">
-        <v>-8.333333333333332</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L24" t="n">
         <v>588.1</v>
@@ -1515,7 +1537,7 @@
         <v>31</v>
       </c>
       <c r="K25" t="n">
-        <v>-33.33333333333333</v>
+        <v>-44</v>
       </c>
       <c r="L25" t="n">
         <v>587</v>
@@ -1564,7 +1586,7 @@
         <v>37</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.11111111111111</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L26" t="n">
         <v>586.5</v>
@@ -1613,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="n">
-        <v>-11.11111111111111</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L27" t="n">
         <v>586.4</v>
@@ -1662,7 +1684,7 @@
         <v>37</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.28571428571428</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L28" t="n">
         <v>586.3</v>
@@ -1711,7 +1733,7 @@
         <v>37</v>
       </c>
       <c r="K29" t="n">
-        <v>-14.28571428571428</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L29" t="n">
         <v>586.2</v>
@@ -1760,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="K30" t="n">
-        <v>-14.28571428571428</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L30" t="n">
         <v>586.1</v>
@@ -1809,7 +1831,7 @@
         <v>37</v>
       </c>
       <c r="K31" t="n">
-        <v>-21.21212121212121</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L31" t="n">
         <v>586</v>
@@ -1860,7 +1882,7 @@
         <v>37</v>
       </c>
       <c r="K32" t="n">
-        <v>-21.21212121212121</v>
+        <v>30</v>
       </c>
       <c r="L32" t="n">
         <v>585.9</v>
@@ -1911,7 +1933,7 @@
         <v>38</v>
       </c>
       <c r="K33" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>586.6</v>
@@ -1962,7 +1984,7 @@
         <v>38</v>
       </c>
       <c r="K34" t="n">
-        <v>-12.5</v>
+        <v>100</v>
       </c>
       <c r="L34" t="n">
         <v>586.6</v>
@@ -2013,7 +2035,7 @@
         <v>38</v>
       </c>
       <c r="K35" t="n">
-        <v>-12.5</v>
+        <v>100</v>
       </c>
       <c r="L35" t="n">
         <v>587.3</v>
@@ -2064,7 +2086,7 @@
         <v>38</v>
       </c>
       <c r="K36" t="n">
-        <v>-12.5</v>
+        <v>100</v>
       </c>
       <c r="L36" t="n">
         <v>587.4</v>
@@ -2115,7 +2137,7 @@
         <v>43</v>
       </c>
       <c r="K37" t="n">
-        <v>15.15151515151515</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
         <v>588</v>
@@ -2166,7 +2188,7 @@
         <v>44</v>
       </c>
       <c r="K38" t="n">
-        <v>11.76470588235294</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L38" t="n">
         <v>588.5</v>
@@ -2217,7 +2239,7 @@
         <v>44</v>
       </c>
       <c r="K39" t="n">
-        <v>11.76470588235294</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L39" t="n">
         <v>589</v>
@@ -2268,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="K40" t="n">
-        <v>11.76470588235294</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L40" t="n">
         <v>589.5</v>
@@ -2319,7 +2341,7 @@
         <v>44</v>
       </c>
       <c r="K41" t="n">
-        <v>11.76470588235294</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L41" t="n">
         <v>590</v>
@@ -2370,7 +2392,7 @@
         <v>44</v>
       </c>
       <c r="K42" t="n">
-        <v>11.76470588235294</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L42" t="n">
         <v>590.5</v>
@@ -2421,7 +2443,7 @@
         <v>44</v>
       </c>
       <c r="K43" t="n">
-        <v>40.74074074074074</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L43" t="n">
         <v>590.9</v>
@@ -2472,7 +2494,7 @@
         <v>44</v>
       </c>
       <c r="K44" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L44" t="n">
         <v>591.3</v>
@@ -2523,7 +2545,7 @@
         <v>46</v>
       </c>
       <c r="K45" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="L45" t="n">
         <v>591.5</v>
@@ -2574,7 +2596,7 @@
         <v>48</v>
       </c>
       <c r="K46" t="n">
-        <v>45.45454545454545</v>
+        <v>-20</v>
       </c>
       <c r="L46" t="n">
         <v>591.9</v>
@@ -2625,7 +2647,7 @@
         <v>48</v>
       </c>
       <c r="K47" t="n">
-        <v>45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>591.8</v>
@@ -2676,7 +2698,7 @@
         <v>48</v>
       </c>
       <c r="K48" t="n">
-        <v>45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>591.8</v>
@@ -2727,7 +2749,7 @@
         <v>48</v>
       </c>
       <c r="K49" t="n">
-        <v>45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>591.8</v>
@@ -2778,7 +2800,7 @@
         <v>48</v>
       </c>
       <c r="K50" t="n">
-        <v>45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>591.8</v>
@@ -2829,7 +2851,7 @@
         <v>51</v>
       </c>
       <c r="K51" t="n">
-        <v>57.14285714285714</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L51" t="n">
         <v>592.1</v>
@@ -2880,7 +2902,7 @@
         <v>51</v>
       </c>
       <c r="K52" t="n">
-        <v>57.14285714285714</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L52" t="n">
         <v>592.4</v>
@@ -2931,7 +2953,7 @@
         <v>52</v>
       </c>
       <c r="K53" t="n">
-        <v>42.85714285714285</v>
+        <v>25</v>
       </c>
       <c r="L53" t="n">
         <v>592.6</v>
@@ -2982,7 +3004,7 @@
         <v>63</v>
       </c>
       <c r="K54" t="n">
-        <v>68</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L54" t="n">
         <v>593.9</v>
@@ -3033,7 +3055,7 @@
         <v>63</v>
       </c>
       <c r="K55" t="n">
-        <v>68</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L55" t="n">
         <v>595.4</v>
@@ -3084,7 +3106,7 @@
         <v>74</v>
       </c>
       <c r="K56" t="n">
-        <v>16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L56" t="n">
         <v>595.6</v>
@@ -3135,7 +3157,7 @@
         <v>75</v>
       </c>
       <c r="K57" t="n">
-        <v>6.25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L57" t="n">
         <v>595.9</v>
@@ -3186,7 +3208,7 @@
         <v>75</v>
       </c>
       <c r="K58" t="n">
-        <v>9.67741935483871</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L58" t="n">
         <v>596.2</v>
@@ -3237,7 +3259,7 @@
         <v>79</v>
       </c>
       <c r="K59" t="n">
-        <v>-2.857142857142857</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L59" t="n">
         <v>596.1</v>
@@ -3288,7 +3310,7 @@
         <v>79</v>
       </c>
       <c r="K60" t="n">
-        <v>-2.857142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L60" t="n">
         <v>596</v>
@@ -3339,7 +3361,7 @@
         <v>79</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.857142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L61" t="n">
         <v>595.6</v>
@@ -3390,7 +3412,7 @@
         <v>82</v>
       </c>
       <c r="K62" t="n">
-        <v>-10.52631578947368</v>
+        <v>-20</v>
       </c>
       <c r="L62" t="n">
         <v>594.9</v>
@@ -3441,7 +3463,7 @@
         <v>82</v>
       </c>
       <c r="K63" t="n">
-        <v>-10.52631578947368</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L63" t="n">
         <v>594.3</v>
@@ -3492,7 +3514,7 @@
         <v>82</v>
       </c>
       <c r="K64" t="n">
-        <v>-10.52631578947368</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L64" t="n">
         <v>592.6</v>
@@ -3543,7 +3565,7 @@
         <v>82</v>
       </c>
       <c r="K65" t="n">
-        <v>-5.555555555555555</v>
+        <v>-75</v>
       </c>
       <c r="L65" t="n">
         <v>590.9</v>

--- a/BackTest/2019-11-01 BackTest GXC.xlsx
+++ b/BackTest/2019-11-01 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,67 +394,42 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MA20</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -463,61 +438,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C2" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D2" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E2" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F2" t="n">
-        <v>1705</v>
+        <v>55</v>
       </c>
       <c r="G2" t="n">
-        <v>582.65</v>
+        <v>6118.834700000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C3" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D3" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E3" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F3" t="n">
-        <v>291.57</v>
+        <v>386.7429</v>
       </c>
       <c r="G3" t="n">
-        <v>582.6666666666666</v>
+        <v>5732.091800000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -525,20 +497,13 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -548,19 +513,19 @@
         <v>590</v>
       </c>
       <c r="C4" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D4" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E4" t="n">
         <v>590</v>
       </c>
       <c r="F4" t="n">
-        <v>753.7802</v>
+        <v>280</v>
       </c>
       <c r="G4" t="n">
-        <v>582.75</v>
+        <v>6012.091800000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -568,1972 +533,1535 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C5" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D5" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E5" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F5" t="n">
-        <v>1.99</v>
+        <v>578.9698</v>
       </c>
       <c r="G5" t="n">
-        <v>582.75</v>
+        <v>5433.122000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C6" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D6" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E6" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F6" t="n">
-        <v>5489.0178</v>
+        <v>1179.5922</v>
       </c>
       <c r="G6" t="n">
-        <v>582.7666666666667</v>
+        <v>4253.529800000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C7" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D7" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E7" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F7" t="n">
-        <v>333</v>
+        <v>32.5112</v>
       </c>
       <c r="G7" t="n">
-        <v>582.8166666666667</v>
+        <v>4253.529800000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C8" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D8" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E8" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F8" t="n">
-        <v>808</v>
+        <v>341</v>
       </c>
       <c r="G8" t="n">
-        <v>582.8833333333333</v>
+        <v>4253.529800000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C9" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D9" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E9" t="n">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="F9" t="n">
-        <v>332</v>
+        <v>2127.984</v>
       </c>
       <c r="G9" t="n">
-        <v>582.95</v>
+        <v>4253.529800000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C10" t="n">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D10" t="n">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="E10" t="n">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="F10" t="n">
-        <v>389</v>
+        <v>349.4138</v>
       </c>
       <c r="G10" t="n">
-        <v>583.0166666666667</v>
+        <v>3904.116000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C11" t="n">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="D11" t="n">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="E11" t="n">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="F11" t="n">
-        <v>622.9986</v>
+        <v>677.9999</v>
       </c>
       <c r="G11" t="n">
-        <v>583.25</v>
+        <v>4582.115900000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>591.3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="C12" t="n">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="D12" t="n">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E12" t="n">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="F12" t="n">
-        <v>105</v>
+        <v>1202.6177</v>
       </c>
       <c r="G12" t="n">
-        <v>583.4666666666667</v>
+        <v>5784.733600000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>591.7</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C13" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D13" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="E13" t="n">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F13" t="n">
-        <v>4971.0018</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>583.6333333333333</v>
+        <v>5785.733600000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L13" t="n">
-        <v>591.9</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C14" t="n">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D14" t="n">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E14" t="n">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="F14" t="n">
-        <v>1033</v>
+        <v>888.8216</v>
       </c>
       <c r="G14" t="n">
-        <v>583.7833333333333</v>
+        <v>6674.555200000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>20</v>
-      </c>
-      <c r="L14" t="n">
-        <v>592.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C15" t="n">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="D15" t="n">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E15" t="n">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="G15" t="n">
-        <v>583.9166666666666</v>
+        <v>6412.555200000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>20</v>
-      </c>
-      <c r="L15" t="n">
-        <v>592.2</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C16" t="n">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="D16" t="n">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E16" t="n">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="F16" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="G16" t="n">
-        <v>584.0833333333334</v>
+        <v>6412.555200000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>20</v>
-      </c>
-      <c r="L16" t="n">
-        <v>592.3</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C17" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D17" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E17" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F17" t="n">
-        <v>2414.9368</v>
+        <v>3523</v>
       </c>
       <c r="G17" t="n">
-        <v>584.1833333333333</v>
+        <v>6412.555200000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L17" t="n">
-        <v>592</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C18" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D18" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E18" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F18" t="n">
-        <v>744</v>
+        <v>694</v>
       </c>
       <c r="G18" t="n">
-        <v>584.2833333333333</v>
+        <v>6412.555200000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>10</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L18" t="n">
-        <v>591.6</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C19" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D19" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E19" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F19" t="n">
-        <v>726</v>
+        <v>258.49</v>
       </c>
       <c r="G19" t="n">
-        <v>584.3833333333333</v>
+        <v>6412.555200000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L19" t="n">
-        <v>591.2</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C20" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D20" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E20" t="n">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>453</v>
       </c>
       <c r="G20" t="n">
-        <v>584.4833333333333</v>
+        <v>6412.555200000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L20" t="n">
-        <v>590.8</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C21" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D21" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E21" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F21" t="n">
-        <v>1.99</v>
+        <v>2808.41</v>
       </c>
       <c r="G21" t="n">
-        <v>584.5833333333334</v>
+        <v>6412.555200000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L21" t="n">
-        <v>590.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>590.75</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C22" t="n">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D22" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E22" t="n">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F22" t="n">
-        <v>426</v>
+        <v>3924.9592</v>
       </c>
       <c r="G22" t="n">
-        <v>584.6833333333333</v>
+        <v>2487.596000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L22" t="n">
-        <v>589.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>590.65</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C23" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D23" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E23" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F23" t="n">
-        <v>25.1055</v>
+        <v>1177.9418</v>
       </c>
       <c r="G23" t="n">
-        <v>584.75</v>
+        <v>3665.537800000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>17</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L23" t="n">
-        <v>588.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>590.2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C24" t="n">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D24" t="n">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E24" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>176.6351</v>
       </c>
       <c r="G24" t="n">
-        <v>584.8833333333333</v>
+        <v>3842.172900000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>24</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L24" t="n">
-        <v>588.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>590.1</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C25" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D25" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E25" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F25" t="n">
-        <v>48.1882</v>
+        <v>1502.4639</v>
       </c>
       <c r="G25" t="n">
-        <v>584.8833333333333</v>
+        <v>2339.709000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>31</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-44</v>
-      </c>
-      <c r="L25" t="n">
-        <v>587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>589.6</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C26" t="n">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D26" t="n">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E26" t="n">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F26" t="n">
-        <v>2.9</v>
+        <v>1208.1402</v>
       </c>
       <c r="G26" t="n">
-        <v>585</v>
+        <v>2339.709000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>37</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L26" t="n">
-        <v>586.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>589.4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C27" t="n">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D27" t="n">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E27" t="n">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F27" t="n">
-        <v>984</v>
+        <v>800</v>
       </c>
       <c r="G27" t="n">
-        <v>585.1166666666667</v>
+        <v>2339.709000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>37</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L27" t="n">
-        <v>586.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>589.2</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C28" t="n">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D28" t="n">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E28" t="n">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F28" t="n">
-        <v>656</v>
+        <v>3511</v>
       </c>
       <c r="G28" t="n">
-        <v>585.2333333333333</v>
+        <v>5850.709000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>37</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L28" t="n">
-        <v>586.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>588.95</v>
+        <v>1</v>
       </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C29" t="n">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D29" t="n">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E29" t="n">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F29" t="n">
-        <v>241</v>
+        <v>188.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>585.3166666666667</v>
+        <v>5661.709100000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>37</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L29" t="n">
-        <v>586.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>588.7</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C30" t="n">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D30" t="n">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E30" t="n">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F30" t="n">
-        <v>1605</v>
+        <v>311</v>
       </c>
       <c r="G30" t="n">
-        <v>585.4166666666666</v>
+        <v>5661.709100000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>37</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L30" t="n">
-        <v>586.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>588.45</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C31" t="n">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D31" t="n">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E31" t="n">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F31" t="n">
-        <v>2145</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>585.5166666666667</v>
+        <v>5662.709100000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>37</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L31" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>588.1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>589.1666666666666</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C32" t="n">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D32" t="n">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="F32" t="n">
-        <v>280</v>
+        <v>2479</v>
       </c>
       <c r="G32" t="n">
-        <v>585.6</v>
+        <v>3183.709100000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>37</v>
-      </c>
-      <c r="K32" t="n">
-        <v>30</v>
-      </c>
-      <c r="L32" t="n">
-        <v>585.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>587.75</v>
-      </c>
-      <c r="N32" t="n">
-        <v>589.0666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C33" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D33" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E33" t="n">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F33" t="n">
-        <v>1734</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>585.9333333333333</v>
+        <v>3184.709100000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>38</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>586.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>587.55</v>
-      </c>
-      <c r="N33" t="n">
-        <v>589</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C34" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D34" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E34" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F34" t="n">
-        <v>2055</v>
+        <v>6.36787564</v>
       </c>
       <c r="G34" t="n">
-        <v>586.0833333333334</v>
+        <v>3184.709100000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>38</v>
-      </c>
-      <c r="K34" t="n">
-        <v>100</v>
-      </c>
-      <c r="L34" t="n">
-        <v>586.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>587.35</v>
-      </c>
-      <c r="N34" t="n">
-        <v>588.9333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C35" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D35" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E35" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F35" t="n">
-        <v>3711</v>
+        <v>41</v>
       </c>
       <c r="G35" t="n">
-        <v>586.2333333333333</v>
+        <v>3225.709100000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38</v>
-      </c>
-      <c r="K35" t="n">
-        <v>100</v>
-      </c>
-      <c r="L35" t="n">
-        <v>587.3</v>
+        <v>579</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>587.15</v>
-      </c>
-      <c r="N35" t="n">
-        <v>588.8333333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C36" t="n">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D36" t="n">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E36" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F36" t="n">
-        <v>1372.6148</v>
+        <v>386</v>
       </c>
       <c r="G36" t="n">
-        <v>586.3666666666667</v>
+        <v>3611.709100000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>38</v>
-      </c>
-      <c r="K36" t="n">
-        <v>100</v>
-      </c>
-      <c r="L36" t="n">
-        <v>587.4</v>
+        <v>580</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>586.95</v>
-      </c>
-      <c r="N36" t="n">
-        <v>588.7333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C37" t="n">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D37" t="n">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="E37" t="n">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>499.9112</v>
       </c>
       <c r="G37" t="n">
-        <v>586.5666666666667</v>
+        <v>3611.709100000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43</v>
-      </c>
-      <c r="K37" t="n">
-        <v>100</v>
-      </c>
-      <c r="L37" t="n">
-        <v>588</v>
+        <v>581</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>587.2</v>
-      </c>
-      <c r="N37" t="n">
-        <v>588.8</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C38" t="n">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D38" t="n">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="E38" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="F38" t="n">
-        <v>656</v>
+        <v>38</v>
       </c>
       <c r="G38" t="n">
-        <v>586.75</v>
+        <v>3649.709100000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44</v>
-      </c>
-      <c r="K38" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L38" t="n">
-        <v>588.5</v>
+        <v>581</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>587.4</v>
-      </c>
-      <c r="N38" t="n">
-        <v>588.8</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="C39" t="n">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="D39" t="n">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E39" t="n">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="F39" t="n">
-        <v>75.4609</v>
+        <v>541</v>
       </c>
       <c r="G39" t="n">
-        <v>586.8833333333333</v>
+        <v>3108.709100000002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>44</v>
-      </c>
-      <c r="K39" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L39" t="n">
-        <v>589</v>
+        <v>584</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>587.6</v>
-      </c>
-      <c r="N39" t="n">
-        <v>588.8</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C40" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D40" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="E40" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F40" t="n">
-        <v>635</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>587.1</v>
+        <v>3109.709100000002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>44</v>
-      </c>
-      <c r="K40" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L40" t="n">
-        <v>589.5</v>
+        <v>579</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>587.8</v>
-      </c>
-      <c r="N40" t="n">
-        <v>588.8</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C41" t="n">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D41" t="n">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="E41" t="n">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="F41" t="n">
-        <v>315</v>
+        <v>1.811</v>
       </c>
       <c r="G41" t="n">
-        <v>587.25</v>
+        <v>3107.898100000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>44</v>
-      </c>
-      <c r="K41" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L41" t="n">
-        <v>590</v>
+        <v>583</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>588</v>
-      </c>
-      <c r="N41" t="n">
-        <v>588.7333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C42" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D42" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="E42" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="F42" t="n">
-        <v>642.9999</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>587.55</v>
+        <v>3108.898100000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>44</v>
-      </c>
-      <c r="K42" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L42" t="n">
-        <v>590.5</v>
+        <v>574</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>588.2</v>
-      </c>
-      <c r="N42" t="n">
-        <v>588.6666666666666</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="C43" t="n">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="D43" t="n">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="E43" t="n">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F43" t="n">
-        <v>407.1857</v>
+        <v>10773.71</v>
       </c>
       <c r="G43" t="n">
-        <v>587.7333333333333</v>
+        <v>-7664.811899999997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44</v>
-      </c>
-      <c r="K43" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L43" t="n">
-        <v>590.9</v>
+        <v>581</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>588.75</v>
-      </c>
-      <c r="N43" t="n">
-        <v>588.6666666666666</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="C44" t="n">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D44" t="n">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="E44" t="n">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="F44" t="n">
-        <v>696.4108</v>
+        <v>14365.5476</v>
       </c>
       <c r="G44" t="n">
-        <v>588.1</v>
+        <v>6700.735700000003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44</v>
-      </c>
-      <c r="K44" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L44" t="n">
-        <v>591.3</v>
+        <v>570</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>588.95</v>
-      </c>
-      <c r="N44" t="n">
-        <v>588.6666666666666</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C45" t="n">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D45" t="n">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="E45" t="n">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="F45" t="n">
-        <v>40</v>
+        <v>2344</v>
       </c>
       <c r="G45" t="n">
-        <v>588.3666666666667</v>
+        <v>9044.735700000003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2541,1048 +2069,2679 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>46</v>
-      </c>
-      <c r="K45" t="n">
-        <v>25</v>
-      </c>
-      <c r="L45" t="n">
-        <v>591.5</v>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>589.4</v>
-      </c>
-      <c r="N45" t="n">
-        <v>588.6</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="C46" t="n">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D46" t="n">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="E46" t="n">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="F46" t="n">
-        <v>3701.2111</v>
+        <v>1953.9813</v>
       </c>
       <c r="G46" t="n">
-        <v>588.5833333333334</v>
+        <v>10998.717</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>48</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L46" t="n">
-        <v>591.9</v>
+        <v>579</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>589.65</v>
-      </c>
-      <c r="N46" t="n">
-        <v>588.6</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C47" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D47" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="E47" t="n">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F47" t="n">
-        <v>131.7148</v>
+        <v>749.3231</v>
       </c>
       <c r="G47" t="n">
-        <v>588.7833333333333</v>
+        <v>11748.0401</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>48</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>591.8</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>589.9</v>
-      </c>
-      <c r="N47" t="n">
-        <v>588.7333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C48" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D48" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="E48" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="F48" t="n">
-        <v>631</v>
+        <v>230.2329</v>
       </c>
       <c r="G48" t="n">
-        <v>588.9666666666667</v>
+        <v>11748.0401</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>48</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>591.8</v>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>590.15</v>
-      </c>
-      <c r="N48" t="n">
-        <v>588.8666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C49" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D49" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="F49" t="n">
-        <v>581</v>
+        <v>871.9999</v>
       </c>
       <c r="G49" t="n">
-        <v>589.15</v>
+        <v>11748.0401</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>48</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>591.8</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>590.4</v>
-      </c>
-      <c r="N49" t="n">
-        <v>589</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C50" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D50" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="E50" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F50" t="n">
-        <v>433</v>
+        <v>1920.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>589.3333333333334</v>
+        <v>13669.04</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>48</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>591.8</v>
+        <v>581</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>590.65</v>
-      </c>
-      <c r="N50" t="n">
-        <v>589.1333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C51" t="n">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="D51" t="n">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="E51" t="n">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F51" t="n">
-        <v>80</v>
+        <v>2216</v>
       </c>
       <c r="G51" t="n">
-        <v>589.5333333333333</v>
+        <v>13669.04</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>51</v>
-      </c>
-      <c r="K51" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L51" t="n">
-        <v>592.1</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>591.05</v>
-      </c>
-      <c r="N51" t="n">
-        <v>589.3666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="C52" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D52" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="E52" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2315</v>
       </c>
       <c r="G52" t="n">
-        <v>589.7333333333333</v>
+        <v>15984.04</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>51</v>
-      </c>
-      <c r="K52" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L52" t="n">
-        <v>592.4</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>591.45</v>
-      </c>
-      <c r="N52" t="n">
-        <v>589.6</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C53" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D53" t="n">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="E53" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="F53" t="n">
-        <v>636.7309</v>
+        <v>19.937</v>
       </c>
       <c r="G53" t="n">
-        <v>589.9</v>
+        <v>16003.977</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>52</v>
-      </c>
-      <c r="K53" t="n">
-        <v>25</v>
-      </c>
-      <c r="L53" t="n">
-        <v>592.6</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>591.75</v>
-      </c>
-      <c r="N53" t="n">
-        <v>590.0333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="C54" t="n">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="D54" t="n">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="E54" t="n">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>749.6</v>
       </c>
       <c r="G54" t="n">
-        <v>590.1833333333333</v>
+        <v>16003.977</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>63</v>
-      </c>
-      <c r="K54" t="n">
-        <v>88.23529411764706</v>
-      </c>
-      <c r="L54" t="n">
-        <v>593.9</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>592.6</v>
-      </c>
-      <c r="N54" t="n">
-        <v>590.6</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C55" t="n">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="D55" t="n">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="E55" t="n">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>591.0086</v>
       </c>
       <c r="G55" t="n">
-        <v>590.4666666666667</v>
+        <v>16003.977</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>63</v>
-      </c>
-      <c r="K55" t="n">
-        <v>86.66666666666667</v>
-      </c>
-      <c r="L55" t="n">
-        <v>595.4</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>593.45</v>
-      </c>
-      <c r="N55" t="n">
-        <v>591.4</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C56" t="n">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D56" t="n">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E56" t="n">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F56" t="n">
-        <v>656.8484999999999</v>
+        <v>7995.8438</v>
       </c>
       <c r="G56" t="n">
-        <v>590.5666666666667</v>
+        <v>23999.8208</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
-      </c>
-      <c r="J56" t="n">
-        <v>74</v>
-      </c>
-      <c r="K56" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L56" t="n">
-        <v>595.6</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>593.75</v>
-      </c>
-      <c r="N56" t="n">
-        <v>591.6333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C57" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D57" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E57" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F57" t="n">
-        <v>148.0554</v>
+        <v>1300</v>
       </c>
       <c r="G57" t="n">
-        <v>590.6666666666666</v>
+        <v>23999.8208</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>75</v>
-      </c>
-      <c r="K57" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L57" t="n">
-        <v>595.9</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>593.85</v>
-      </c>
-      <c r="N57" t="n">
-        <v>591.9</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C58" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D58" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E58" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F58" t="n">
-        <v>440.3813</v>
+        <v>2008</v>
       </c>
       <c r="G58" t="n">
-        <v>590.7666666666667</v>
+        <v>23999.8208</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>75</v>
-      </c>
-      <c r="K58" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L58" t="n">
-        <v>596.2</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>594</v>
-      </c>
-      <c r="N58" t="n">
-        <v>592.1666666666666</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C59" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D59" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E59" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F59" t="n">
-        <v>321.2148</v>
+        <v>2131</v>
       </c>
       <c r="G59" t="n">
-        <v>590.8</v>
+        <v>23999.8208</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>79</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="L59" t="n">
-        <v>596.1</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>593.95</v>
-      </c>
-      <c r="N59" t="n">
-        <v>592.3</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C60" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D60" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E60" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F60" t="n">
-        <v>759.3232</v>
+        <v>523</v>
       </c>
       <c r="G60" t="n">
-        <v>590.8333333333334</v>
+        <v>23999.8208</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>79</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L60" t="n">
-        <v>596</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>593.9</v>
-      </c>
-      <c r="N60" t="n">
-        <v>592.4333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C61" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D61" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E61" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F61" t="n">
-        <v>38.6187</v>
+        <v>1705</v>
       </c>
       <c r="G61" t="n">
-        <v>590.8666666666667</v>
+        <v>25704.8208</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>79</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L61" t="n">
-        <v>595.6</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>593.85</v>
-      </c>
-      <c r="N61" t="n">
-        <v>592.5666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C62" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D62" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E62" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F62" t="n">
-        <v>1146.2058</v>
+        <v>291.57</v>
       </c>
       <c r="G62" t="n">
-        <v>590.8333333333334</v>
+        <v>25704.8208</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>82</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L62" t="n">
-        <v>594.9</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>593.65</v>
-      </c>
-      <c r="N62" t="n">
-        <v>592.6</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C63" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D63" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E63" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F63" t="n">
-        <v>1102</v>
+        <v>753.7802</v>
       </c>
       <c r="G63" t="n">
-        <v>590.8</v>
+        <v>25704.8208</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>82</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-89.47368421052632</v>
-      </c>
-      <c r="L63" t="n">
-        <v>594.3</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>593.45</v>
-      </c>
-      <c r="N63" t="n">
-        <v>592.6</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C64" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D64" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E64" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F64" t="n">
-        <v>917.29</v>
+        <v>1.99</v>
       </c>
       <c r="G64" t="n">
-        <v>590.7666666666667</v>
+        <v>25706.8108</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>82</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-89.47368421052632</v>
-      </c>
-      <c r="L64" t="n">
-        <v>592.6</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>593.25</v>
-      </c>
-      <c r="N64" t="n">
-        <v>592.6</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D65" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E65" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F65" t="n">
-        <v>1044</v>
+        <v>5489.0178</v>
       </c>
       <c r="G65" t="n">
-        <v>590.7166666666667</v>
+        <v>25706.8108</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>591</v>
+      </c>
+      <c r="C66" t="n">
+        <v>591</v>
+      </c>
+      <c r="D66" t="n">
+        <v>591</v>
+      </c>
+      <c r="E66" t="n">
+        <v>591</v>
+      </c>
+      <c r="F66" t="n">
+        <v>333</v>
+      </c>
+      <c r="G66" t="n">
+        <v>25706.8108</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>592</v>
+      </c>
+      <c r="C67" t="n">
+        <v>592</v>
+      </c>
+      <c r="D67" t="n">
+        <v>592</v>
+      </c>
+      <c r="E67" t="n">
+        <v>592</v>
+      </c>
+      <c r="F67" t="n">
+        <v>808</v>
+      </c>
+      <c r="G67" t="n">
+        <v>26514.8108</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>592</v>
+      </c>
+      <c r="C68" t="n">
+        <v>592</v>
+      </c>
+      <c r="D68" t="n">
+        <v>592</v>
+      </c>
+      <c r="E68" t="n">
+        <v>592</v>
+      </c>
+      <c r="F68" t="n">
+        <v>332</v>
+      </c>
+      <c r="G68" t="n">
+        <v>26514.8108</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>592</v>
+      </c>
+      <c r="C69" t="n">
+        <v>592</v>
+      </c>
+      <c r="D69" t="n">
+        <v>592</v>
+      </c>
+      <c r="E69" t="n">
+        <v>592</v>
+      </c>
+      <c r="F69" t="n">
+        <v>389</v>
+      </c>
+      <c r="G69" t="n">
+        <v>26514.8108</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>592</v>
+      </c>
+      <c r="C70" t="n">
+        <v>594</v>
+      </c>
+      <c r="D70" t="n">
+        <v>594</v>
+      </c>
+      <c r="E70" t="n">
+        <v>592</v>
+      </c>
+      <c r="F70" t="n">
+        <v>622.9986</v>
+      </c>
+      <c r="G70" t="n">
+        <v>27137.8094</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>594</v>
+      </c>
+      <c r="C71" t="n">
+        <v>594</v>
+      </c>
+      <c r="D71" t="n">
+        <v>594</v>
+      </c>
+      <c r="E71" t="n">
+        <v>594</v>
+      </c>
+      <c r="F71" t="n">
+        <v>105</v>
+      </c>
+      <c r="G71" t="n">
+        <v>27137.8094</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>589</v>
+      </c>
+      <c r="C72" t="n">
+        <v>592</v>
+      </c>
+      <c r="D72" t="n">
+        <v>592</v>
+      </c>
+      <c r="E72" t="n">
+        <v>589</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4971.0018</v>
+      </c>
+      <c r="G72" t="n">
+        <v>22166.8076</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>592</v>
+      </c>
+      <c r="C73" t="n">
+        <v>592</v>
+      </c>
+      <c r="D73" t="n">
+        <v>592</v>
+      </c>
+      <c r="E73" t="n">
+        <v>592</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1033</v>
+      </c>
+      <c r="G73" t="n">
+        <v>22166.8076</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>592</v>
+      </c>
+      <c r="C74" t="n">
+        <v>592</v>
+      </c>
+      <c r="D74" t="n">
+        <v>592</v>
+      </c>
+      <c r="E74" t="n">
+        <v>592</v>
+      </c>
+      <c r="F74" t="n">
+        <v>16</v>
+      </c>
+      <c r="G74" t="n">
+        <v>22166.8076</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>592</v>
+      </c>
+      <c r="C75" t="n">
+        <v>592</v>
+      </c>
+      <c r="D75" t="n">
+        <v>592</v>
+      </c>
+      <c r="E75" t="n">
+        <v>592</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G75" t="n">
+        <v>22166.8076</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>588</v>
+      </c>
+      <c r="C76" t="n">
+        <v>588</v>
+      </c>
+      <c r="D76" t="n">
+        <v>588</v>
+      </c>
+      <c r="E76" t="n">
+        <v>588</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2414.9368</v>
+      </c>
+      <c r="G76" t="n">
+        <v>19751.8708</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>588</v>
+      </c>
+      <c r="C77" t="n">
+        <v>588</v>
+      </c>
+      <c r="D77" t="n">
+        <v>588</v>
+      </c>
+      <c r="E77" t="n">
+        <v>588</v>
+      </c>
+      <c r="F77" t="n">
+        <v>744</v>
+      </c>
+      <c r="G77" t="n">
+        <v>19751.8708</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>588</v>
+      </c>
+      <c r="C78" t="n">
+        <v>588</v>
+      </c>
+      <c r="D78" t="n">
+        <v>588</v>
+      </c>
+      <c r="E78" t="n">
+        <v>588</v>
+      </c>
+      <c r="F78" t="n">
+        <v>726</v>
+      </c>
+      <c r="G78" t="n">
+        <v>19751.8708</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>587</v>
+      </c>
+      <c r="C79" t="n">
+        <v>588</v>
+      </c>
+      <c r="D79" t="n">
+        <v>588</v>
+      </c>
+      <c r="E79" t="n">
+        <v>587</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>19751.8708</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>588</v>
+      </c>
+      <c r="C80" t="n">
+        <v>588</v>
+      </c>
+      <c r="D80" t="n">
+        <v>588</v>
+      </c>
+      <c r="E80" t="n">
+        <v>588</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G80" t="n">
+        <v>19751.8708</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>588</v>
+      </c>
+      <c r="C81" t="n">
+        <v>588</v>
+      </c>
+      <c r="D81" t="n">
+        <v>588</v>
+      </c>
+      <c r="E81" t="n">
+        <v>588</v>
+      </c>
+      <c r="F81" t="n">
+        <v>426</v>
+      </c>
+      <c r="G81" t="n">
+        <v>19751.8708</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>581</v>
+      </c>
+      <c r="C82" t="n">
+        <v>581</v>
+      </c>
+      <c r="D82" t="n">
+        <v>581</v>
+      </c>
+      <c r="E82" t="n">
+        <v>581</v>
+      </c>
+      <c r="F82" t="n">
+        <v>25.1055</v>
+      </c>
+      <c r="G82" t="n">
+        <v>19726.7653</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>588</v>
+      </c>
+      <c r="C83" t="n">
+        <v>588</v>
+      </c>
+      <c r="D83" t="n">
+        <v>588</v>
+      </c>
+      <c r="E83" t="n">
+        <v>588</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>19727.7653</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="K65" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L65" t="n">
-        <v>590.9</v>
-      </c>
-      <c r="M65" t="n">
-        <v>593.15</v>
-      </c>
-      <c r="N65" t="n">
-        <v>592.6</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
-        <v>1</v>
-      </c>
+      <c r="B84" t="n">
+        <v>581</v>
+      </c>
+      <c r="C84" t="n">
+        <v>581</v>
+      </c>
+      <c r="D84" t="n">
+        <v>581</v>
+      </c>
+      <c r="E84" t="n">
+        <v>581</v>
+      </c>
+      <c r="F84" t="n">
+        <v>48.1882</v>
+      </c>
+      <c r="G84" t="n">
+        <v>19679.5771</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>587</v>
+      </c>
+      <c r="C85" t="n">
+        <v>587</v>
+      </c>
+      <c r="D85" t="n">
+        <v>587</v>
+      </c>
+      <c r="E85" t="n">
+        <v>587</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G85" t="n">
+        <v>19682.4771</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>587</v>
+      </c>
+      <c r="C86" t="n">
+        <v>587</v>
+      </c>
+      <c r="D86" t="n">
+        <v>587</v>
+      </c>
+      <c r="E86" t="n">
+        <v>587</v>
+      </c>
+      <c r="F86" t="n">
+        <v>984</v>
+      </c>
+      <c r="G86" t="n">
+        <v>19682.4771</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>587</v>
+      </c>
+      <c r="C87" t="n">
+        <v>587</v>
+      </c>
+      <c r="D87" t="n">
+        <v>587</v>
+      </c>
+      <c r="E87" t="n">
+        <v>587</v>
+      </c>
+      <c r="F87" t="n">
+        <v>656</v>
+      </c>
+      <c r="G87" t="n">
+        <v>19682.4771</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>587</v>
+      </c>
+      <c r="C88" t="n">
+        <v>587</v>
+      </c>
+      <c r="D88" t="n">
+        <v>587</v>
+      </c>
+      <c r="E88" t="n">
+        <v>587</v>
+      </c>
+      <c r="F88" t="n">
+        <v>241</v>
+      </c>
+      <c r="G88" t="n">
+        <v>19682.4771</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>587</v>
+      </c>
+      <c r="C89" t="n">
+        <v>587</v>
+      </c>
+      <c r="D89" t="n">
+        <v>587</v>
+      </c>
+      <c r="E89" t="n">
+        <v>587</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1605</v>
+      </c>
+      <c r="G89" t="n">
+        <v>19682.4771</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>587</v>
+      </c>
+      <c r="C90" t="n">
+        <v>587</v>
+      </c>
+      <c r="D90" t="n">
+        <v>587</v>
+      </c>
+      <c r="E90" t="n">
+        <v>587</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2145</v>
+      </c>
+      <c r="G90" t="n">
+        <v>19682.4771</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>587</v>
+      </c>
+      <c r="C91" t="n">
+        <v>587</v>
+      </c>
+      <c r="D91" t="n">
+        <v>587</v>
+      </c>
+      <c r="E91" t="n">
+        <v>587</v>
+      </c>
+      <c r="F91" t="n">
+        <v>280</v>
+      </c>
+      <c r="G91" t="n">
+        <v>19682.4771</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>587</v>
+      </c>
+      <c r="C92" t="n">
+        <v>588</v>
+      </c>
+      <c r="D92" t="n">
+        <v>588</v>
+      </c>
+      <c r="E92" t="n">
+        <v>587</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1734</v>
+      </c>
+      <c r="G92" t="n">
+        <v>21416.4771</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>588</v>
+      </c>
+      <c r="C93" t="n">
+        <v>588</v>
+      </c>
+      <c r="D93" t="n">
+        <v>588</v>
+      </c>
+      <c r="E93" t="n">
+        <v>588</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2055</v>
+      </c>
+      <c r="G93" t="n">
+        <v>21416.4771</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>588</v>
+      </c>
+      <c r="C94" t="n">
+        <v>588</v>
+      </c>
+      <c r="D94" t="n">
+        <v>588</v>
+      </c>
+      <c r="E94" t="n">
+        <v>588</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3711</v>
+      </c>
+      <c r="G94" t="n">
+        <v>21416.4771</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>588</v>
+      </c>
+      <c r="C95" t="n">
+        <v>588</v>
+      </c>
+      <c r="D95" t="n">
+        <v>588</v>
+      </c>
+      <c r="E95" t="n">
+        <v>588</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1372.6148</v>
+      </c>
+      <c r="G95" t="n">
+        <v>21416.4771</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>593</v>
+      </c>
+      <c r="C96" t="n">
+        <v>593</v>
+      </c>
+      <c r="D96" t="n">
+        <v>593</v>
+      </c>
+      <c r="E96" t="n">
+        <v>593</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>21417.4771</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>593</v>
+      </c>
+      <c r="C97" t="n">
+        <v>592</v>
+      </c>
+      <c r="D97" t="n">
+        <v>593</v>
+      </c>
+      <c r="E97" t="n">
+        <v>592</v>
+      </c>
+      <c r="F97" t="n">
+        <v>656</v>
+      </c>
+      <c r="G97" t="n">
+        <v>20761.4771</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>592</v>
+      </c>
+      <c r="C98" t="n">
+        <v>592</v>
+      </c>
+      <c r="D98" t="n">
+        <v>592</v>
+      </c>
+      <c r="E98" t="n">
+        <v>592</v>
+      </c>
+      <c r="F98" t="n">
+        <v>75.4609</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20761.4771</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>592</v>
+      </c>
+      <c r="C99" t="n">
+        <v>592</v>
+      </c>
+      <c r="D99" t="n">
+        <v>592</v>
+      </c>
+      <c r="E99" t="n">
+        <v>592</v>
+      </c>
+      <c r="F99" t="n">
+        <v>635</v>
+      </c>
+      <c r="G99" t="n">
+        <v>20761.4771</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>592</v>
+      </c>
+      <c r="C100" t="n">
+        <v>592</v>
+      </c>
+      <c r="D100" t="n">
+        <v>592</v>
+      </c>
+      <c r="E100" t="n">
+        <v>592</v>
+      </c>
+      <c r="F100" t="n">
+        <v>315</v>
+      </c>
+      <c r="G100" t="n">
+        <v>20761.4771</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>592</v>
+      </c>
+      <c r="C101" t="n">
+        <v>592</v>
+      </c>
+      <c r="D101" t="n">
+        <v>592</v>
+      </c>
+      <c r="E101" t="n">
+        <v>592</v>
+      </c>
+      <c r="F101" t="n">
+        <v>642.9999</v>
+      </c>
+      <c r="G101" t="n">
+        <v>20761.4771</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>592</v>
+      </c>
+      <c r="C102" t="n">
+        <v>592</v>
+      </c>
+      <c r="D102" t="n">
+        <v>592</v>
+      </c>
+      <c r="E102" t="n">
+        <v>592</v>
+      </c>
+      <c r="F102" t="n">
+        <v>407.1857</v>
+      </c>
+      <c r="G102" t="n">
+        <v>20761.4771</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>592</v>
+      </c>
+      <c r="C103" t="n">
+        <v>592</v>
+      </c>
+      <c r="D103" t="n">
+        <v>592</v>
+      </c>
+      <c r="E103" t="n">
+        <v>592</v>
+      </c>
+      <c r="F103" t="n">
+        <v>696.4108</v>
+      </c>
+      <c r="G103" t="n">
+        <v>20761.4771</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>590</v>
+      </c>
+      <c r="C104" t="n">
+        <v>590</v>
+      </c>
+      <c r="D104" t="n">
+        <v>590</v>
+      </c>
+      <c r="E104" t="n">
+        <v>590</v>
+      </c>
+      <c r="F104" t="n">
+        <v>40</v>
+      </c>
+      <c r="G104" t="n">
+        <v>20721.4771</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>590</v>
+      </c>
+      <c r="C105" t="n">
+        <v>592</v>
+      </c>
+      <c r="D105" t="n">
+        <v>592</v>
+      </c>
+      <c r="E105" t="n">
+        <v>590</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3701.2111</v>
+      </c>
+      <c r="G105" t="n">
+        <v>24422.6882</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>588</v>
+      </c>
+      <c r="C106" t="n">
+        <v>592</v>
+      </c>
+      <c r="D106" t="n">
+        <v>592</v>
+      </c>
+      <c r="E106" t="n">
+        <v>586</v>
+      </c>
+      <c r="F106" t="n">
+        <v>131.7148</v>
+      </c>
+      <c r="G106" t="n">
+        <v>24422.6882</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>592</v>
+      </c>
+      <c r="C107" t="n">
+        <v>592</v>
+      </c>
+      <c r="D107" t="n">
+        <v>592</v>
+      </c>
+      <c r="E107" t="n">
+        <v>592</v>
+      </c>
+      <c r="F107" t="n">
+        <v>631</v>
+      </c>
+      <c r="G107" t="n">
+        <v>24422.6882</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>592</v>
+      </c>
+      <c r="C108" t="n">
+        <v>592</v>
+      </c>
+      <c r="D108" t="n">
+        <v>592</v>
+      </c>
+      <c r="E108" t="n">
+        <v>592</v>
+      </c>
+      <c r="F108" t="n">
+        <v>581</v>
+      </c>
+      <c r="G108" t="n">
+        <v>24422.6882</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>592</v>
+      </c>
+      <c r="C109" t="n">
+        <v>592</v>
+      </c>
+      <c r="D109" t="n">
+        <v>592</v>
+      </c>
+      <c r="E109" t="n">
+        <v>592</v>
+      </c>
+      <c r="F109" t="n">
+        <v>433</v>
+      </c>
+      <c r="G109" t="n">
+        <v>24422.6882</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>592</v>
+      </c>
+      <c r="C110" t="n">
+        <v>595</v>
+      </c>
+      <c r="D110" t="n">
+        <v>595</v>
+      </c>
+      <c r="E110" t="n">
+        <v>592</v>
+      </c>
+      <c r="F110" t="n">
+        <v>80</v>
+      </c>
+      <c r="G110" t="n">
+        <v>24502.6882</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>595</v>
+      </c>
+      <c r="C111" t="n">
+        <v>595</v>
+      </c>
+      <c r="D111" t="n">
+        <v>595</v>
+      </c>
+      <c r="E111" t="n">
+        <v>595</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>24502.6882</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>595</v>
+      </c>
+      <c r="C112" t="n">
+        <v>594</v>
+      </c>
+      <c r="D112" t="n">
+        <v>605</v>
+      </c>
+      <c r="E112" t="n">
+        <v>594</v>
+      </c>
+      <c r="F112" t="n">
+        <v>636.7309</v>
+      </c>
+      <c r="G112" t="n">
+        <v>23865.9573</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>605</v>
+      </c>
+      <c r="C113" t="n">
+        <v>605</v>
+      </c>
+      <c r="D113" t="n">
+        <v>605</v>
+      </c>
+      <c r="E113" t="n">
+        <v>605</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>23866.9573</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest GXC.xlsx
+++ b/BackTest/2019-11-01 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,21 @@
         <v>4582.115900000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +789,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +826,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +863,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +900,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +937,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +974,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1011,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1048,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1085,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1122,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1159,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1196,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1231,19 @@
         <v>3842.172900000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1268,19 @@
         <v>2339.709000000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1305,19 @@
         <v>2339.709000000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1342,19 @@
         <v>2339.709000000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1379,19 @@
         <v>5850.709000000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1416,19 @@
         <v>5661.709100000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1453,19 @@
         <v>5661.709100000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1490,19 @@
         <v>5662.709100000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1527,19 @@
         <v>3183.709100000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1566,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1603,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,22 +1640,17 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>579</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1686,24 +1675,21 @@
         <v>3611.709100000002</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
         <v>580</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1730,22 +1716,17 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>581</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1772,22 +1753,17 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>581</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1814,22 +1790,17 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>584</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1854,24 +1825,21 @@
         <v>3109.709100000002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>579</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1896,24 +1864,21 @@
         <v>3107.898100000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>583</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1938,24 +1903,21 @@
         <v>3108.898100000002</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>574</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1980,24 +1942,21 @@
         <v>-7664.811899999997</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>581</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>581</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2022,24 +1981,19 @@
         <v>6700.735700000003</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>570</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2066,20 +2020,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2104,24 +2055,19 @@
         <v>10998.717</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>579</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2148,20 +2094,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2188,20 +2131,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2226,22 +2166,21 @@
         <v>11748.0401</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2266,24 +2205,21 @@
         <v>13669.04</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>581</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>581</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2308,22 +2244,21 @@
         <v>13669.04</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2350,20 +2285,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2390,20 +2322,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2430,20 +2359,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2470,20 +2396,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2510,20 +2433,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2550,20 +2470,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2590,20 +2507,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2630,20 +2544,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2670,20 +2581,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2710,20 +2618,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2748,22 +2653,17 @@
         <v>25704.8208</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2790,20 +2690,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2830,20 +2723,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2870,20 +2756,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2910,20 +2789,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2950,20 +2822,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2990,20 +2855,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3030,20 +2888,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3068,22 +2919,15 @@
         <v>27137.8094</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3108,22 +2952,15 @@
         <v>27137.8094</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3150,20 +2987,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3190,20 +3020,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3228,22 +3051,15 @@
         <v>22166.8076</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3268,22 +3084,15 @@
         <v>22166.8076</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3308,22 +3117,15 @@
         <v>19751.8708</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3348,22 +3150,15 @@
         <v>19751.8708</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3388,22 +3183,19 @@
         <v>19751.8708</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>588</v>
+      </c>
+      <c r="J78" t="n">
+        <v>588</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3430,20 +3222,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>588</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3470,20 +3261,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>588</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3510,20 +3300,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>588</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3550,20 +3339,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>588</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3590,20 +3378,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>588</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3630,20 +3417,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>588</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3670,20 +3456,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>588</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3710,20 +3495,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>588</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3750,20 +3534,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>588</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3788,22 +3571,21 @@
         <v>19682.4771</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>588</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3830,20 +3612,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>588</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3870,20 +3651,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>588</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3910,20 +3690,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>588</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3950,20 +3729,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>588</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3990,20 +3768,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>588</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4030,20 +3807,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>588</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4070,20 +3846,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>588</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4110,20 +3885,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>588</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4150,20 +3924,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>588</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4188,20 +3961,21 @@
         <v>20761.4771</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>588</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
       </c>
       <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4226,18 +4000,21 @@
         <v>20761.4771</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>588</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4262,18 +4039,21 @@
         <v>20761.4771</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>588</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4300,16 +4080,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>588</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4334,18 +4117,21 @@
         <v>20761.4771</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>588</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4370,18 +4156,21 @@
         <v>20761.4771</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>588</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4406,18 +4195,21 @@
         <v>20721.4771</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>588</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4442,18 +4234,21 @@
         <v>24422.6882</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>588</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4478,18 +4273,21 @@
         <v>24422.6882</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>588</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4514,18 +4312,21 @@
         <v>24422.6882</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>588</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.001802721088435</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4550,18 +4351,15 @@
         <v>24422.6882</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4586,18 +4384,15 @@
         <v>24422.6882</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4622,18 +4417,15 @@
         <v>24502.6882</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4658,18 +4450,15 @@
         <v>24502.6882</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4694,18 +4483,15 @@
         <v>23865.9573</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4730,20 +4516,17 @@
         <v>23866.9573</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest GXC.xlsx
+++ b/BackTest/2019-11-01 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,17 +748,11 @@
         <v>4582.115900000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -791,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -828,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -902,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -939,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -976,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1013,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1050,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1087,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1124,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1161,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1198,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1231,15 +1177,11 @@
         <v>3842.172900000002</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1268,15 +1210,11 @@
         <v>2339.709000000002</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1305,15 +1243,11 @@
         <v>2339.709000000002</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1342,15 +1276,11 @@
         <v>2339.709000000002</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1379,15 +1309,11 @@
         <v>5850.709000000002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1416,15 +1342,11 @@
         <v>5661.709100000002</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1453,15 +1375,11 @@
         <v>5661.709100000002</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1490,15 +1408,11 @@
         <v>5662.709100000002</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1527,15 +1441,11 @@
         <v>3183.709100000002</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1568,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1605,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1638,15 +1540,11 @@
         <v>3225.709100000002</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1675,17 +1573,11 @@
         <v>3611.709100000002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1716,13 +1608,13 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I37" t="n">
+        <v>581</v>
+      </c>
+      <c r="J37" t="n">
+        <v>581</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1753,11 +1645,15 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>581</v>
+      </c>
+      <c r="J38" t="n">
+        <v>581</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1790,8 +1686,12 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>584</v>
+      </c>
+      <c r="J39" t="n">
+        <v>581</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,12 +1725,14 @@
         <v>3109.709100000002</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>579</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>581</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1864,12 +1766,14 @@
         <v>3107.898100000002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>583</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>581</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,12 +1807,14 @@
         <v>3108.898100000002</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>574</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>581</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,12 +1848,14 @@
         <v>-7664.811899999997</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>581</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>581</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1984,7 +1892,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>581</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2021,7 +1931,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>581</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2058,7 +1970,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>581</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2095,7 +2009,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>581</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2129,10 +2045,14 @@
         <v>11748.0401</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>581</v>
+      </c>
+      <c r="J48" t="n">
+        <v>581</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2166,12 +2086,14 @@
         <v>11748.0401</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>581</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>581</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2205,12 +2127,14 @@
         <v>13669.04</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>581</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>581</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2244,12 +2168,12 @@
         <v>13669.04</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>583</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>581</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2286,7 +2210,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>581</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2323,7 +2249,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>581</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2360,7 +2288,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>581</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2397,7 +2327,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>581</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2434,7 +2366,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>581</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,7 +2405,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>581</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2508,7 +2444,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>581</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2545,7 +2483,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>581</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,7 +2522,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>581</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2619,7 +2561,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>581</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2653,16 +2597,20 @@
         <v>25704.8208</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>581</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
       <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2691,8 +2639,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>581</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2724,8 +2678,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>581</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2757,8 +2717,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>581</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2790,8 +2756,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>581</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2823,8 +2795,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>581</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2856,8 +2834,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>581</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2889,8 +2873,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>581</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2919,11 +2909,17 @@
         <v>27137.8094</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>581</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2952,11 +2948,17 @@
         <v>27137.8094</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>581</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2988,8 +2990,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>581</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3021,8 +3029,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>581</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3051,11 +3065,17 @@
         <v>22166.8076</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>581</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3084,11 +3104,17 @@
         <v>22166.8076</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>581</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3117,11 +3143,17 @@
         <v>19751.8708</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>581</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3150,11 +3182,17 @@
         <v>19751.8708</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>581</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3183,15 +3221,17 @@
         <v>19751.8708</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>588</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+        <v>581</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3224,11 +3264,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3263,7 +3303,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3302,7 +3342,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3337,19 +3377,19 @@
         <v>19726.7653</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="M82" t="inlineStr"/>
     </row>
@@ -3379,14 +3419,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>588</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3415,17 +3449,11 @@
         <v>19679.5771</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>588</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3457,14 +3485,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>588</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3493,17 +3515,11 @@
         <v>19682.4771</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>588</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3532,17 +3548,11 @@
         <v>19682.4771</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>588</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3571,17 +3581,11 @@
         <v>19682.4771</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>588</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3613,14 +3617,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>588</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3652,14 +3650,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>588</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3688,17 +3680,11 @@
         <v>19682.4771</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>588</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3727,17 +3713,11 @@
         <v>21416.4771</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>588</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3766,17 +3746,11 @@
         <v>21416.4771</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>588</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3805,17 +3779,11 @@
         <v>21416.4771</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>588</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3844,17 +3812,11 @@
         <v>21416.4771</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>588</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3883,17 +3845,11 @@
         <v>21417.4771</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>588</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3922,17 +3878,11 @@
         <v>20761.4771</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>588</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3961,17 +3911,11 @@
         <v>20761.4771</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>588</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4000,17 +3944,11 @@
         <v>20761.4771</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>588</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4039,17 +3977,11 @@
         <v>20761.4771</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>588</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4078,17 +4010,11 @@
         <v>20761.4771</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>588</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4117,17 +4043,11 @@
         <v>20761.4771</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>588</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4156,17 +4076,11 @@
         <v>20761.4771</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>588</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4195,17 +4109,11 @@
         <v>20721.4771</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>588</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4234,17 +4142,11 @@
         <v>24422.6882</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>588</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4273,17 +4175,11 @@
         <v>24422.6882</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>588</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4312,19 +4208,13 @@
         <v>24422.6882</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>588</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>1.001802721088435</v>
+        <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
     </row>
@@ -4351,7 +4241,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4384,7 +4274,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4417,7 +4307,7 @@
         <v>24502.6882</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4450,7 +4340,7 @@
         <v>24502.6882</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4483,7 +4373,7 @@
         <v>23865.9573</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4516,7 +4406,7 @@
         <v>23866.9573</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4527,6 +4417,6 @@
       <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest GXC.xlsx
+++ b/BackTest/2019-11-01 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6118.834700000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5732.091800000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6012.091800000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5433.122000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1210,10 +1210,14 @@
         <v>2339.709000000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>581</v>
+      </c>
+      <c r="J25" t="n">
+        <v>581</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1243,11 +1247,19 @@
         <v>2339.709000000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>580</v>
+      </c>
+      <c r="J26" t="n">
+        <v>581</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1288,19 @@
         <v>2339.709000000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>580</v>
+      </c>
+      <c r="J27" t="n">
+        <v>581</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1329,19 @@
         <v>5850.709000000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>580</v>
+      </c>
+      <c r="J28" t="n">
+        <v>581</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1370,19 @@
         <v>5661.709100000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>582</v>
+      </c>
+      <c r="J29" t="n">
+        <v>581</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1411,19 @@
         <v>5661.709100000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>581</v>
+      </c>
+      <c r="J30" t="n">
+        <v>581</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1452,19 @@
         <v>5662.709100000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>581</v>
+      </c>
+      <c r="J31" t="n">
+        <v>581</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1496,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>581</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1532,19 @@
         <v>3184.709100000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>568</v>
+      </c>
+      <c r="J33" t="n">
+        <v>581</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1573,19 @@
         <v>3184.709100000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>579</v>
+      </c>
+      <c r="J34" t="n">
+        <v>581</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1614,19 @@
         <v>3225.709100000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>579</v>
+      </c>
+      <c r="J35" t="n">
+        <v>581</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1655,19 @@
         <v>3611.709100000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>580</v>
+      </c>
+      <c r="J36" t="n">
+        <v>581</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1614,7 +1704,11 @@
       <c r="J37" t="n">
         <v>581</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1653,7 +1747,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1889,9 +1983,11 @@
         <v>6700.735700000003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>570</v>
+      </c>
       <c r="J44" t="n">
         <v>581</v>
       </c>
@@ -1928,9 +2024,11 @@
         <v>9044.735700000003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>574</v>
+      </c>
       <c r="J45" t="n">
         <v>581</v>
       </c>
@@ -1967,9 +2065,11 @@
         <v>10998.717</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>579</v>
+      </c>
       <c r="J46" t="n">
         <v>581</v>
       </c>
@@ -2006,9 +2106,11 @@
         <v>11748.0401</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>580</v>
+      </c>
       <c r="J47" t="n">
         <v>581</v>
       </c>
@@ -2086,11 +2188,9 @@
         <v>11748.0401</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>581</v>
       </c>
@@ -2127,11 +2227,9 @@
         <v>13669.04</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>581</v>
       </c>
@@ -2792,7 +2890,7 @@
         <v>26514.8108</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
@@ -2800,11 +2898,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>1.013932874354561</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -2831,17 +2929,11 @@
         <v>26514.8108</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>581</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2870,17 +2962,11 @@
         <v>26514.8108</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>581</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2909,17 +2995,11 @@
         <v>27137.8094</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>581</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2948,17 +3028,11 @@
         <v>27137.8094</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>581</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2987,17 +3061,11 @@
         <v>22166.8076</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>581</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3026,17 +3094,11 @@
         <v>22166.8076</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>581</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3065,17 +3127,11 @@
         <v>22166.8076</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>581</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3104,17 +3160,11 @@
         <v>22166.8076</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>581</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3143,17 +3193,11 @@
         <v>19751.8708</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>581</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3182,17 +3226,11 @@
         <v>19751.8708</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>581</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3221,17 +3259,11 @@
         <v>19751.8708</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>581</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3260,17 +3292,11 @@
         <v>19751.8708</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>581</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +3328,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>581</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3338,17 +3358,11 @@
         <v>19751.8708</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>581</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3380,16 +3394,10 @@
         <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>581</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M82" t="inlineStr"/>
     </row>
@@ -3449,7 +3457,7 @@
         <v>19679.5771</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3515,7 +3523,7 @@
         <v>19682.4771</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3548,7 +3556,7 @@
         <v>19682.4771</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3581,7 +3589,7 @@
         <v>19682.4771</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3680,7 +3688,7 @@
         <v>19682.4771</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3713,7 +3721,7 @@
         <v>21416.4771</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3746,7 +3754,7 @@
         <v>21416.4771</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3779,7 +3787,7 @@
         <v>21416.4771</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3812,7 +3820,7 @@
         <v>21416.4771</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3845,7 +3853,7 @@
         <v>21417.4771</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3911,7 +3919,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3944,7 +3952,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3977,7 +3985,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4010,7 +4018,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4043,7 +4051,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4076,7 +4084,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4109,7 +4117,7 @@
         <v>20721.4771</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4142,7 +4150,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4175,7 +4183,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4208,7 +4216,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4241,7 +4249,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4274,7 +4282,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4307,7 +4315,7 @@
         <v>24502.6882</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4340,7 +4348,7 @@
         <v>24502.6882</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4373,7 +4381,7 @@
         <v>23865.9573</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4406,7 +4414,7 @@
         <v>23866.9573</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4417,6 +4425,6 @@
       <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest GXC.xlsx
+++ b/BackTest/2019-11-01 BackTest GXC.xlsx
@@ -451,7 +451,7 @@
         <v>6118.834700000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5732.091800000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6012.091800000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5433.122000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1012,10 +1012,14 @@
         <v>6412.555200000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>582</v>
+      </c>
+      <c r="J19" t="n">
+        <v>582</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1048,8 +1052,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>582</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1091,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>582</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1193,17 @@
         <v>3842.172900000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>580</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1215,10 +1237,12 @@
       <c r="I25" t="n">
         <v>581</v>
       </c>
-      <c r="J25" t="n">
-        <v>581</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1252,12 +1276,10 @@
       <c r="I26" t="n">
         <v>580</v>
       </c>
-      <c r="J26" t="n">
-        <v>581</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1293,12 +1315,10 @@
       <c r="I27" t="n">
         <v>580</v>
       </c>
-      <c r="J27" t="n">
-        <v>581</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1334,12 +1354,10 @@
       <c r="I28" t="n">
         <v>580</v>
       </c>
-      <c r="J28" t="n">
-        <v>581</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1375,9 +1393,7 @@
       <c r="I29" t="n">
         <v>582</v>
       </c>
-      <c r="J29" t="n">
-        <v>581</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1416,9 +1432,7 @@
       <c r="I30" t="n">
         <v>581</v>
       </c>
-      <c r="J30" t="n">
-        <v>581</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1452,14 +1466,10 @@
         <v>5662.709100000002</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>581</v>
-      </c>
-      <c r="J31" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1496,9 +1506,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>581</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1532,14 +1540,10 @@
         <v>3184.709100000002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>568</v>
-      </c>
-      <c r="J33" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1578,9 +1582,7 @@
       <c r="I34" t="n">
         <v>579</v>
       </c>
-      <c r="J34" t="n">
-        <v>581</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1619,9 +1621,7 @@
       <c r="I35" t="n">
         <v>579</v>
       </c>
-      <c r="J35" t="n">
-        <v>581</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1660,9 +1660,7 @@
       <c r="I36" t="n">
         <v>580</v>
       </c>
-      <c r="J36" t="n">
-        <v>581</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1701,9 +1699,7 @@
       <c r="I37" t="n">
         <v>581</v>
       </c>
-      <c r="J37" t="n">
-        <v>581</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1742,9 +1738,7 @@
       <c r="I38" t="n">
         <v>581</v>
       </c>
-      <c r="J38" t="n">
-        <v>581</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1783,9 +1777,7 @@
       <c r="I39" t="n">
         <v>584</v>
       </c>
-      <c r="J39" t="n">
-        <v>581</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1824,9 +1816,7 @@
       <c r="I40" t="n">
         <v>579</v>
       </c>
-      <c r="J40" t="n">
-        <v>581</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1865,9 +1855,7 @@
       <c r="I41" t="n">
         <v>583</v>
       </c>
-      <c r="J41" t="n">
-        <v>581</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1906,9 +1894,7 @@
       <c r="I42" t="n">
         <v>574</v>
       </c>
-      <c r="J42" t="n">
-        <v>581</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1947,9 +1933,7 @@
       <c r="I43" t="n">
         <v>581</v>
       </c>
-      <c r="J43" t="n">
-        <v>581</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1988,9 +1972,7 @@
       <c r="I44" t="n">
         <v>570</v>
       </c>
-      <c r="J44" t="n">
-        <v>581</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2024,14 +2006,10 @@
         <v>9044.735700000003</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>574</v>
-      </c>
-      <c r="J45" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2070,9 +2048,7 @@
       <c r="I46" t="n">
         <v>579</v>
       </c>
-      <c r="J46" t="n">
-        <v>581</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2106,14 +2082,10 @@
         <v>11748.0401</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>580</v>
-      </c>
-      <c r="J47" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2152,9 +2124,7 @@
       <c r="I48" t="n">
         <v>581</v>
       </c>
-      <c r="J48" t="n">
-        <v>581</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,12 +2158,12 @@
         <v>11748.0401</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>581</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>581</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2227,12 +2197,12 @@
         <v>13669.04</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>581</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>581</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,12 +2236,12 @@
         <v>13669.04</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>581</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>583</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2305,12 +2275,12 @@
         <v>15984.04</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>581</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>583</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2347,9 +2317,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>581</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2386,9 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>581</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2425,9 +2391,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>581</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2464,9 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>581</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2503,9 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>581</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2542,9 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>581</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2581,9 +2539,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>581</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2620,9 +2576,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>581</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2659,9 +2613,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>581</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2698,9 +2650,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>581</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2737,9 +2687,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>581</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2776,9 +2724,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>581</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2815,9 +2761,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>581</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2854,9 +2798,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>581</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2890,19 +2832,17 @@
         <v>26514.8108</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>581</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.013932874354561</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -2929,11 +2869,15 @@
         <v>26514.8108</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2962,11 +2906,15 @@
         <v>26514.8108</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2995,11 +2943,15 @@
         <v>27137.8094</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3028,11 +2980,15 @@
         <v>27137.8094</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3061,11 +3017,15 @@
         <v>22166.8076</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3094,11 +3054,15 @@
         <v>22166.8076</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3127,11 +3091,15 @@
         <v>22166.8076</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3160,11 +3128,15 @@
         <v>22166.8076</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3193,11 +3165,15 @@
         <v>19751.8708</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3226,11 +3202,15 @@
         <v>19751.8708</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3259,11 +3239,15 @@
         <v>19751.8708</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3292,11 +3276,15 @@
         <v>19751.8708</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3329,7 +3317,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3358,11 +3350,15 @@
         <v>19751.8708</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3391,11 +3387,15 @@
         <v>19726.7653</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3428,7 +3428,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3461,7 +3465,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3494,7 +3502,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3527,7 +3539,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3560,7 +3576,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3593,7 +3613,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3626,7 +3650,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3659,7 +3687,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3692,7 +3724,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3725,7 +3761,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3758,7 +3798,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3791,7 +3835,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3824,7 +3872,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3857,7 +3909,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3942,15 @@
         <v>20761.4771</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3919,14 +3979,16 @@
         <v>20761.4771</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -3952,7 +4014,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3985,7 +4047,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4018,7 +4080,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4051,7 +4113,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4084,7 +4146,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4117,7 +4179,7 @@
         <v>20721.4771</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4150,7 +4212,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4183,7 +4245,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4216,7 +4278,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4249,7 +4311,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4282,7 +4344,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4315,7 +4377,7 @@
         <v>24502.6882</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4348,7 +4410,7 @@
         <v>24502.6882</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4381,7 +4443,7 @@
         <v>23865.9573</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4414,7 +4476,7 @@
         <v>23866.9573</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest GXC.xlsx
+++ b/BackTest/2019-11-01 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>55</v>
       </c>
       <c r="G2" t="n">
-        <v>6118.834700000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>386.7429</v>
       </c>
       <c r="G3" t="n">
-        <v>5732.091800000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>280</v>
       </c>
       <c r="G4" t="n">
-        <v>6012.091800000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>578.9698</v>
       </c>
       <c r="G5" t="n">
-        <v>5433.122000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1179.5922</v>
       </c>
       <c r="G6" t="n">
-        <v>4253.529800000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>32.5112</v>
       </c>
       <c r="G7" t="n">
-        <v>4253.529800000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>341</v>
       </c>
       <c r="G8" t="n">
-        <v>4253.529800000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2127.984</v>
       </c>
       <c r="G9" t="n">
-        <v>4253.529800000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>349.4138</v>
       </c>
       <c r="G10" t="n">
-        <v>3904.116000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>677.9999</v>
       </c>
       <c r="G11" t="n">
-        <v>4582.115900000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1202.6177</v>
       </c>
       <c r="G12" t="n">
-        <v>5784.733600000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>5785.733600000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>888.8216</v>
       </c>
       <c r="G14" t="n">
-        <v>6674.555200000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>262</v>
       </c>
       <c r="G15" t="n">
-        <v>6412.555200000002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1.1</v>
       </c>
       <c r="G16" t="n">
-        <v>6412.555200000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3523</v>
       </c>
       <c r="G17" t="n">
-        <v>6412.555200000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>694</v>
       </c>
       <c r="G18" t="n">
-        <v>6412.555200000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,22 +953,15 @@
         <v>258.49</v>
       </c>
       <c r="G19" t="n">
-        <v>6412.555200000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>582</v>
-      </c>
-      <c r="J19" t="n">
-        <v>582</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1046,24 +983,15 @@
         <v>453</v>
       </c>
       <c r="G20" t="n">
-        <v>6412.555200000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>582</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1085,24 +1013,15 @@
         <v>2808.41</v>
       </c>
       <c r="G21" t="n">
-        <v>6412.555200000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>582</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1124,18 +1043,15 @@
         <v>3924.9592</v>
       </c>
       <c r="G22" t="n">
-        <v>2487.596000000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1157,18 +1073,15 @@
         <v>1177.9418</v>
       </c>
       <c r="G23" t="n">
-        <v>3665.537800000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1190,24 +1103,15 @@
         <v>176.6351</v>
       </c>
       <c r="G24" t="n">
-        <v>3842.172900000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1229,24 +1133,15 @@
         <v>1502.4639</v>
       </c>
       <c r="G25" t="n">
-        <v>2339.709000000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1268,24 +1163,15 @@
         <v>1208.1402</v>
       </c>
       <c r="G26" t="n">
-        <v>2339.709000000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1307,24 +1193,15 @@
         <v>800</v>
       </c>
       <c r="G27" t="n">
-        <v>2339.709000000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1346,24 +1223,15 @@
         <v>3511</v>
       </c>
       <c r="G28" t="n">
-        <v>5850.709000000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1385,24 +1253,15 @@
         <v>188.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>5661.709100000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1424,24 +1283,15 @@
         <v>311</v>
       </c>
       <c r="G30" t="n">
-        <v>5661.709100000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,22 +1313,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>5662.709100000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1500,22 +1343,15 @@
         <v>2479</v>
       </c>
       <c r="G32" t="n">
-        <v>3183.709100000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1537,22 +1373,15 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>3184.709100000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1574,24 +1403,15 @@
         <v>6.36787564</v>
       </c>
       <c r="G34" t="n">
-        <v>3184.709100000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1613,24 +1433,15 @@
         <v>41</v>
       </c>
       <c r="G35" t="n">
-        <v>3225.709100000002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,24 +1463,15 @@
         <v>386</v>
       </c>
       <c r="G36" t="n">
-        <v>3611.709100000002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1691,24 +1493,15 @@
         <v>499.9112</v>
       </c>
       <c r="G37" t="n">
-        <v>3611.709100000002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1730,24 +1523,15 @@
         <v>38</v>
       </c>
       <c r="G38" t="n">
-        <v>3649.709100000002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1769,24 +1553,15 @@
         <v>541</v>
       </c>
       <c r="G39" t="n">
-        <v>3108.709100000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1808,24 +1583,15 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>3109.709100000002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1847,24 +1613,15 @@
         <v>1.811</v>
       </c>
       <c r="G41" t="n">
-        <v>3107.898100000002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1886,24 +1643,19 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>3108.898100000002</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>574</v>
       </c>
       <c r="I42" t="n">
         <v>574</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1925,24 +1677,23 @@
         <v>10773.71</v>
       </c>
       <c r="G43" t="n">
-        <v>-7664.811899999997</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="I43" t="n">
-        <v>581</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>574</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1964,24 +1715,23 @@
         <v>14365.5476</v>
       </c>
       <c r="G44" t="n">
-        <v>6700.735700000003</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>570</v>
       </c>
       <c r="I44" t="n">
-        <v>570</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>574</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2003,22 +1753,23 @@
         <v>2344</v>
       </c>
       <c r="G45" t="n">
-        <v>9044.735700000003</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>574</v>
+      </c>
+      <c r="I45" t="n">
+        <v>574</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,24 +1791,21 @@
         <v>1953.9813</v>
       </c>
       <c r="G46" t="n">
-        <v>10998.717</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>579</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>574</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2079,22 +1827,21 @@
         <v>749.3231</v>
       </c>
       <c r="G47" t="n">
-        <v>11748.0401</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>574</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2116,24 +1863,21 @@
         <v>230.2329</v>
       </c>
       <c r="G48" t="n">
-        <v>11748.0401</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>581</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>574</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2155,24 +1899,21 @@
         <v>871.9999</v>
       </c>
       <c r="G49" t="n">
-        <v>11748.0401</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>581</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>574</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2194,24 +1935,21 @@
         <v>1920.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>13669.04</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>581</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>574</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2233,24 +1971,21 @@
         <v>2216</v>
       </c>
       <c r="G51" t="n">
-        <v>13669.04</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>583</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>574</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2272,24 +2007,21 @@
         <v>2315</v>
       </c>
       <c r="G52" t="n">
-        <v>15984.04</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>583</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>574</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2311,22 +2043,21 @@
         <v>19.937</v>
       </c>
       <c r="G53" t="n">
-        <v>16003.977</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>574</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2348,22 +2079,21 @@
         <v>749.6</v>
       </c>
       <c r="G54" t="n">
-        <v>16003.977</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>574</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2385,22 +2115,21 @@
         <v>591.0086</v>
       </c>
       <c r="G55" t="n">
-        <v>16003.977</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>574</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2422,22 +2151,21 @@
         <v>7995.8438</v>
       </c>
       <c r="G56" t="n">
-        <v>23999.8208</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>574</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2459,22 +2187,21 @@
         <v>1300</v>
       </c>
       <c r="G57" t="n">
-        <v>23999.8208</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>574</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2496,22 +2223,21 @@
         <v>2008</v>
       </c>
       <c r="G58" t="n">
-        <v>23999.8208</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>574</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2533,22 +2259,21 @@
         <v>2131</v>
       </c>
       <c r="G59" t="n">
-        <v>23999.8208</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>574</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2570,22 +2295,21 @@
         <v>523</v>
       </c>
       <c r="G60" t="n">
-        <v>23999.8208</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>574</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2607,22 +2331,21 @@
         <v>1705</v>
       </c>
       <c r="G61" t="n">
-        <v>25704.8208</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>574</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2644,22 +2367,21 @@
         <v>291.57</v>
       </c>
       <c r="G62" t="n">
-        <v>25704.8208</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>574</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2681,22 +2403,21 @@
         <v>753.7802</v>
       </c>
       <c r="G63" t="n">
-        <v>25704.8208</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>574</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2718,22 +2439,21 @@
         <v>1.99</v>
       </c>
       <c r="G64" t="n">
-        <v>25706.8108</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>574</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2755,22 +2475,21 @@
         <v>5489.0178</v>
       </c>
       <c r="G65" t="n">
-        <v>25706.8108</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>574</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2792,22 +2511,21 @@
         <v>333</v>
       </c>
       <c r="G66" t="n">
-        <v>25706.8108</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>574</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2829,22 +2547,21 @@
         <v>808</v>
       </c>
       <c r="G67" t="n">
-        <v>26514.8108</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>574</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2866,22 +2583,21 @@
         <v>332</v>
       </c>
       <c r="G68" t="n">
-        <v>26514.8108</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>574</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2903,22 +2619,21 @@
         <v>389</v>
       </c>
       <c r="G69" t="n">
-        <v>26514.8108</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>574</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2940,22 +2655,21 @@
         <v>622.9986</v>
       </c>
       <c r="G70" t="n">
-        <v>27137.8094</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>574</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1.029843205574913</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2977,22 +2691,15 @@
         <v>105</v>
       </c>
       <c r="G71" t="n">
-        <v>27137.8094</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3014,22 +2721,15 @@
         <v>4971.0018</v>
       </c>
       <c r="G72" t="n">
-        <v>22166.8076</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3051,22 +2751,15 @@
         <v>1033</v>
       </c>
       <c r="G73" t="n">
-        <v>22166.8076</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3088,22 +2781,15 @@
         <v>16</v>
       </c>
       <c r="G74" t="n">
-        <v>22166.8076</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3125,22 +2811,15 @@
         <v>1.01</v>
       </c>
       <c r="G75" t="n">
-        <v>22166.8076</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3162,22 +2841,15 @@
         <v>2414.9368</v>
       </c>
       <c r="G76" t="n">
-        <v>19751.8708</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3199,22 +2871,15 @@
         <v>744</v>
       </c>
       <c r="G77" t="n">
-        <v>19751.8708</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3236,22 +2901,19 @@
         <v>726</v>
       </c>
       <c r="G78" t="n">
-        <v>19751.8708</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>588</v>
+      </c>
+      <c r="I78" t="n">
+        <v>588</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3273,22 +2935,23 @@
         <v>5</v>
       </c>
       <c r="G79" t="n">
-        <v>19751.8708</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>588</v>
+      </c>
+      <c r="I79" t="n">
+        <v>588</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3310,22 +2973,21 @@
         <v>1.99</v>
       </c>
       <c r="G80" t="n">
-        <v>19751.8708</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>588</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3347,22 +3009,21 @@
         <v>426</v>
       </c>
       <c r="G81" t="n">
-        <v>19751.8708</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>588</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3384,22 +3045,21 @@
         <v>25.1055</v>
       </c>
       <c r="G82" t="n">
-        <v>19726.7653</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>588</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3421,22 +3081,21 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>19727.7653</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>588</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3458,22 +3117,21 @@
         <v>48.1882</v>
       </c>
       <c r="G84" t="n">
-        <v>19679.5771</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>588</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3495,22 +3153,23 @@
         <v>2.9</v>
       </c>
       <c r="G85" t="n">
-        <v>19682.4771</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>581</v>
+      </c>
+      <c r="I85" t="n">
+        <v>588</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3532,22 +3191,23 @@
         <v>984</v>
       </c>
       <c r="G86" t="n">
-        <v>19682.4771</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>587</v>
+      </c>
+      <c r="I86" t="n">
+        <v>588</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3569,22 +3229,23 @@
         <v>656</v>
       </c>
       <c r="G87" t="n">
-        <v>19682.4771</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>587</v>
+      </c>
+      <c r="I87" t="n">
+        <v>588</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3606,22 +3267,23 @@
         <v>241</v>
       </c>
       <c r="G88" t="n">
-        <v>19682.4771</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>587</v>
+      </c>
+      <c r="I88" t="n">
+        <v>588</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3643,22 +3305,21 @@
         <v>1605</v>
       </c>
       <c r="G89" t="n">
-        <v>19682.4771</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>588</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3680,22 +3341,21 @@
         <v>2145</v>
       </c>
       <c r="G90" t="n">
-        <v>19682.4771</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>588</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3717,22 +3377,21 @@
         <v>280</v>
       </c>
       <c r="G91" t="n">
-        <v>19682.4771</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>588</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3754,22 +3413,21 @@
         <v>1734</v>
       </c>
       <c r="G92" t="n">
-        <v>21416.4771</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>588</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3791,22 +3449,21 @@
         <v>2055</v>
       </c>
       <c r="G93" t="n">
-        <v>21416.4771</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>588</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3828,22 +3485,21 @@
         <v>3711</v>
       </c>
       <c r="G94" t="n">
-        <v>21416.4771</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>588</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3865,22 +3521,21 @@
         <v>1372.6148</v>
       </c>
       <c r="G95" t="n">
-        <v>21416.4771</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>588</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3902,22 +3557,21 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>21417.4771</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>588</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3939,22 +3593,21 @@
         <v>656</v>
       </c>
       <c r="G97" t="n">
-        <v>20761.4771</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>588</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3976,20 +3629,21 @@
         <v>75.4609</v>
       </c>
       <c r="G98" t="n">
-        <v>20761.4771</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>588</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
       </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4011,18 +3665,21 @@
         <v>635</v>
       </c>
       <c r="G99" t="n">
-        <v>20761.4771</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>588</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4044,18 +3701,21 @@
         <v>315</v>
       </c>
       <c r="G100" t="n">
-        <v>20761.4771</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>588</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4077,18 +3737,21 @@
         <v>642.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>20761.4771</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>588</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4110,18 +3773,21 @@
         <v>407.1857</v>
       </c>
       <c r="G102" t="n">
-        <v>20761.4771</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>588</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4143,18 +3809,21 @@
         <v>696.4108</v>
       </c>
       <c r="G103" t="n">
-        <v>20761.4771</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>588</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4176,18 +3845,21 @@
         <v>40</v>
       </c>
       <c r="G104" t="n">
-        <v>20721.4771</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>588</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4209,18 +3881,21 @@
         <v>3701.2111</v>
       </c>
       <c r="G105" t="n">
-        <v>24422.6882</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>588</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4242,18 +3917,21 @@
         <v>131.7148</v>
       </c>
       <c r="G106" t="n">
-        <v>24422.6882</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>588</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4275,18 +3953,21 @@
         <v>631</v>
       </c>
       <c r="G107" t="n">
-        <v>24422.6882</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>588</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4308,18 +3989,21 @@
         <v>581</v>
       </c>
       <c r="G108" t="n">
-        <v>24422.6882</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>588</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4341,18 +4025,21 @@
         <v>433</v>
       </c>
       <c r="G109" t="n">
-        <v>24422.6882</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>588</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4374,18 +4061,21 @@
         <v>80</v>
       </c>
       <c r="G110" t="n">
-        <v>24502.6882</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>588</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4407,18 +4097,21 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>24502.6882</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>588</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4440,18 +4133,21 @@
         <v>636.7309</v>
       </c>
       <c r="G112" t="n">
-        <v>23865.9573</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>588</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4473,18 +4169,21 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>23866.9573</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>588</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
